--- a/Purchase xlsx samples/Sample 1.xlsx
+++ b/Purchase xlsx samples/Sample 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Type</t>
   </si>
@@ -40,24 +40,6 @@
   </si>
   <si>
     <t>Shava</t>
-  </si>
-  <si>
-    <t>Medicine</t>
-  </si>
-  <si>
-    <t>Melanena</t>
-  </si>
-  <si>
-    <t>Burger</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>Cola 1l</t>
   </si>
   <si>
     <t>Travel</t>
@@ -388,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +384,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>43969</v>
+        <v>43976</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -424,179 +406,140 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>222.5</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
         <f>C3*D3</f>
-        <v>445</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>160</v>
+        <v>3000</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E7" si="0">C4*D4</f>
-        <v>160</v>
+        <f t="shared" ref="E4:E5" si="0">C4*D4</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <f>SUM(E3:E5)</f>
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8">
-        <f>SUM(E3:E7)</f>
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>43971</v>
+      <c r="D9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
+      <c r="E10">
+        <f>C10*D10</f>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <f>C11*D11</f>
-        <v>60</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>3000</v>
+        <v>220</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E13" si="1">C12*D12</f>
-        <v>3000</v>
+        <f>C12*D12</f>
+        <v>880</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>220</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>880</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <f>SUM(E11:E13)</f>
+        <f>SUM(E10:E12)</f>
         <v>3940</v>
       </c>
     </row>
